--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>401661.6068092108</v>
+        <v>397073.3247852086</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6910952.519696833</v>
+        <v>6910952.519696832</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5561960.940077791</v>
+        <v>5561960.940077792</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>407.6766681590797</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>252.8211787235037</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
         <v>277.176001558223</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
-        <v>164.6672323145638</v>
+        <v>276.3934716631304</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.5660300744983</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T14" t="n">
-        <v>95.96895325536352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>226.5892278516388</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>88.56482190892872</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.726764244840613</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>272.9995198954633</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>23.90057280955032</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>161.4994400939418</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.43872475250878</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>97.00071224681864</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,16 +2083,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>224.7038233473912</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>82.45713076123018</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>65.7912331289255</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5909258267186</v>
+        <v>55.69462570685336</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>214.6085965864187</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>84.5690859063569</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>51.69198155551911</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>96.17080219441817</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2490,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.5780456014529</v>
+        <v>79.84346058225275</v>
       </c>
       <c r="H25" t="n">
         <v>133.3219911678582</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>150.7214115632189</v>
@@ -2541,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>213.9062768076916</v>
       </c>
       <c r="H26" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>51.69198155551911</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U26" t="n">
         <v>255.5900972850689</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>265.7058018800325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5780456014529</v>
+        <v>136.7040807549282</v>
       </c>
       <c r="H28" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>68.20633367524529</v>
@@ -2763,13 +2763,13 @@
         <v>0.8692371952046898</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T28" t="n">
-        <v>178.186242218954</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3271665015756</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>214.9266113021515</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H29" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>51.69198155551911</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U29" t="n">
         <v>255.5900972850689</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>248.2062285826957</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>11.84164092575782</v>
+        <v>41.33236882872016</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H31" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>322.9799952307502</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>51.69198155551911</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>245.7964456795732</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3192,7 +3192,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3201,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.5780456014529</v>
+        <v>40.36429064149812</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S34" t="n">
         <v>150.7214115632189</v>
@@ -3246,13 +3246,13 @@
         <v>277.3271665015756</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>33.47616255435427</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>126.2199509788721</v>
+        <v>288.4568844613261</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>51.69198155551911</v>
       </c>
       <c r="T35" t="n">
         <v>208.7978291248855</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>18.43065230557757</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3219911678582</v>
+        <v>126.6111243688548</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.5633491017144</v>
@@ -3486,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3505,10 +3505,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>170.0232842008293</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>152.6950815835083</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>51.69198155551911</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U38" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3678,10 +3678,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>150.7214115632189</v>
@@ -3723,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>175.4708287097057</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>97.04003938962346</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>128.9883073824487</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.6851953721275</v>
+        <v>245.7615945557634</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>51.69198155551911</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.7978291248855</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I43" t="n">
-        <v>29.40209706022029</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>65.30635851403585</v>
       </c>
       <c r="T43" t="n">
-        <v>236.5633491017144</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3271665015756</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>129.5849166839634</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.0298839804087</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>271.6851953721275</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.69198155551911</v>
+        <v>51.6919815555191</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>52.69448712050605</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>78.97422338704746</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H46" t="n">
         <v>133.3219911678582</v>
       </c>
       <c r="I46" t="n">
-        <v>68.20633367524529</v>
+        <v>68.20633367524528</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8692371952046898</v>
+        <v>0.8692371952046827</v>
       </c>
       <c r="S46" t="n">
         <v>150.7214115632189</v>
@@ -4191,16 +4191,16 @@
         <v>236.5633491017144</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3271665015756</v>
+        <v>69.79583427207261</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>996.7510350422514</v>
+        <v>1130.638489100414</v>
       </c>
       <c r="C11" t="n">
-        <v>996.7510350422514</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="D11" t="n">
-        <v>996.7510350422514</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="E11" t="n">
-        <v>996.7510350422514</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="F11" t="n">
-        <v>571.6268532316516</v>
+        <v>718.8438747983129</v>
       </c>
       <c r="G11" t="n">
         <v>316.2519252281125</v>
@@ -5041,16 +5041,16 @@
         <v>68.08893453872679</v>
       </c>
       <c r="J11" t="n">
-        <v>184.2963411149081</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K11" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L11" t="n">
         <v>598.9981372303102</v>
       </c>
       <c r="M11" t="n">
-        <v>862.614037710348</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="V11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="W11" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="X11" t="n">
-        <v>1402.088305087361</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="Y11" t="n">
-        <v>996.7510350422514</v>
+        <v>1130.638489100414</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4367873432375</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9308838607423</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D12" t="n">
         <v>372.0909253760273</v>
@@ -5108,37 +5108,37 @@
         <v>267.3889916489645</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7431613318687</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G12" t="n">
-        <v>80.62417733004328</v>
+        <v>80.62417733004318</v>
       </c>
       <c r="H12" t="n">
         <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>535.8351625219349</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>712.4740133525838</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>921.7487118335989</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.903693665915</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1333.947360653402</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P12" t="n">
-        <v>1487.345475499754</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
         <v>1780.360625738642</v>
@@ -5153,7 +5153,7 @@
         <v>1611.735244555135</v>
       </c>
       <c r="U12" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V12" t="n">
         <v>1222.055408810128</v>
@@ -5162,10 +5162,10 @@
         <v>1025.534031643345</v>
       </c>
       <c r="X12" t="n">
-        <v>862.0566854100078</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.3637967633002</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>543.4272762981451</v>
+        <v>545.5837784570099</v>
       </c>
       <c r="C13" t="n">
-        <v>371.4547131770611</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="D13" t="n">
-        <v>208.1379403038318</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="E13" t="n">
-        <v>208.1379403038318</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="F13" t="n">
-        <v>36.27616607839228</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G13" t="n">
         <v>36.27616607839228</v>
@@ -5205,19 +5205,19 @@
         <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>912.7564163623084</v>
+        <v>718.9944949477218</v>
       </c>
       <c r="M13" t="n">
-        <v>1010.809763939928</v>
+        <v>1167.912050167826</v>
       </c>
       <c r="N13" t="n">
-        <v>1459.727319160032</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O13" t="n">
-        <v>1546.020446982356</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.808303919614</v>
@@ -5226,25 +5226,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T13" t="n">
-        <v>1417.340083083371</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U13" t="n">
-        <v>1417.340083083371</v>
+        <v>1293.675768233716</v>
       </c>
       <c r="V13" t="n">
-        <v>1251.009545391893</v>
+        <v>1014.490443321463</v>
       </c>
       <c r="W13" t="n">
-        <v>976.1571415644056</v>
+        <v>1014.490443321463</v>
       </c>
       <c r="X13" t="n">
-        <v>733.5932450102107</v>
+        <v>771.9265467672678</v>
       </c>
       <c r="Y13" t="n">
-        <v>733.5932450102107</v>
+        <v>545.5837784570099</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1716.869967298035</v>
+        <v>865.7688456352926</v>
       </c>
       <c r="C14" t="n">
-        <v>1289.969237311335</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D14" t="n">
-        <v>1289.969237311335</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E14" t="n">
-        <v>863.9922974591925</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F14" t="n">
         <v>438.8681156485927</v>
@@ -5275,19 +5275,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872675</v>
       </c>
       <c r="J14" t="n">
         <v>184.296341114908</v>
       </c>
       <c r="K14" t="n">
-        <v>366.7061291250299</v>
+        <v>366.70612912503</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303104</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1716.869967298035</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U14" t="n">
-        <v>1716.869967298035</v>
+        <v>1491.038203265894</v>
       </c>
       <c r="V14" t="n">
-        <v>1716.869967298035</v>
+        <v>1262.160195334946</v>
       </c>
       <c r="W14" t="n">
-        <v>1716.869967298035</v>
+        <v>865.7688456352926</v>
       </c>
       <c r="X14" t="n">
-        <v>1716.869967298035</v>
+        <v>865.7688456352926</v>
       </c>
       <c r="Y14" t="n">
-        <v>1716.869967298035</v>
+        <v>865.7688456352926</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>249.3215906975524</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>375.0902162687925</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L15" t="n">
-        <v>551.7290670994414</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M15" t="n">
-        <v>761.0037655804565</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N15" t="n">
-        <v>978.1587474127728</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O15" t="n">
         <v>1427.076302632877</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.8832665156085</v>
+        <v>600.7448615094295</v>
       </c>
       <c r="C16" t="n">
-        <v>707.9107033945245</v>
+        <v>428.7722983883455</v>
       </c>
       <c r="D16" t="n">
-        <v>544.5939305212952</v>
+        <v>428.7722983883455</v>
       </c>
       <c r="E16" t="n">
-        <v>378.3857246741487</v>
+        <v>262.564092541199</v>
       </c>
       <c r="F16" t="n">
-        <v>206.5239504487091</v>
+        <v>173.104676471574</v>
       </c>
       <c r="G16" t="n">
-        <v>41.05067541661512</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H16" t="n">
         <v>36.27616607839228</v>
@@ -5439,22 +5439,22 @@
         <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>463.838861142204</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L16" t="n">
-        <v>912.7564163623085</v>
+        <v>718.9944949477219</v>
       </c>
       <c r="M16" t="n">
-        <v>1010.809763939928</v>
+        <v>1167.912050167826</v>
       </c>
       <c r="N16" t="n">
-        <v>1107.808470031876</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O16" t="n">
-        <v>1556.72602525198</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P16" t="n">
-        <v>1627.467133393116</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
@@ -5466,22 +5466,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T16" t="n">
-        <v>1813.808303919614</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="U16" t="n">
-        <v>1813.808303919614</v>
+        <v>1573.817469751211</v>
       </c>
       <c r="V16" t="n">
-        <v>1813.808303919614</v>
+        <v>1292.10600235924</v>
       </c>
       <c r="W16" t="n">
-        <v>1538.955900092127</v>
+        <v>1017.253598531753</v>
       </c>
       <c r="X16" t="n">
-        <v>1296.392003537932</v>
+        <v>1017.253598531753</v>
       </c>
       <c r="Y16" t="n">
-        <v>1070.049235227674</v>
+        <v>790.9108302214952</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>737.1574386924904</v>
+        <v>1164.668727853712</v>
       </c>
       <c r="C17" t="n">
-        <v>737.1574386924904</v>
+        <v>1164.668727853712</v>
       </c>
       <c r="D17" t="n">
-        <v>737.1574386924904</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="E17" t="n">
-        <v>737.1574386924904</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="F17" t="n">
-        <v>312.0332568818906</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872669</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149081</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250298</v>
+        <v>366.7061291250301</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303105</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103483</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455148</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.77691709091</v>
+        <v>1591.776917090911</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.92751718922</v>
+        <v>1740.927517189221</v>
       </c>
       <c r="R17" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1749.253343642254</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T17" t="n">
-        <v>1749.253343642254</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="U17" t="n">
-        <v>1491.038203265894</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="V17" t="n">
-        <v>1133.548788392143</v>
+        <v>1600.530719422884</v>
       </c>
       <c r="W17" t="n">
-        <v>737.1574386924904</v>
+        <v>1576.388726685965</v>
       </c>
       <c r="X17" t="n">
-        <v>737.1574386924904</v>
+        <v>1164.668727853712</v>
       </c>
       <c r="Y17" t="n">
-        <v>737.1574386924904</v>
+        <v>1164.668727853712</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432378</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607426</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.0909253760276</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
-        <v>267.3889916489648</v>
+        <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
-        <v>173.743161331869</v>
+        <v>173.7431613318685</v>
       </c>
       <c r="G18" t="n">
-        <v>80.62417733004382</v>
+        <v>80.6241773300433</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839282</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968713</v>
+        <v>75.26691519968661</v>
       </c>
       <c r="J18" t="n">
-        <v>433.5238427951073</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>559.2924683663473</v>
+        <v>559.2924683663468</v>
       </c>
       <c r="L18" t="n">
-        <v>735.9313191969962</v>
+        <v>735.9313191969959</v>
       </c>
       <c r="M18" t="n">
-        <v>945.2060176780112</v>
+        <v>945.206017678011</v>
       </c>
       <c r="N18" t="n">
         <v>1162.360999510327</v>
@@ -5615,31 +5615,31 @@
         <v>1510.802781344167</v>
       </c>
       <c r="Q18" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U18" t="n">
-        <v>1427.028547670862</v>
+        <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100082</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633006</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.2487291994763</v>
+        <v>776.2594678520346</v>
       </c>
       <c r="C19" t="n">
-        <v>36.27616607839228</v>
+        <v>613.1287202823964</v>
       </c>
       <c r="D19" t="n">
-        <v>36.27616607839228</v>
+        <v>449.8119474091671</v>
       </c>
       <c r="E19" t="n">
-        <v>36.27616607839228</v>
+        <v>449.8119474091671</v>
       </c>
       <c r="F19" t="n">
-        <v>36.27616607839228</v>
+        <v>277.9501731837275</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839228</v>
+        <v>36.27616607839229</v>
       </c>
       <c r="J19" t="n">
-        <v>70.15038753583897</v>
+        <v>148.0721041840599</v>
       </c>
       <c r="K19" t="n">
-        <v>385.9171444939832</v>
+        <v>463.8388611422041</v>
       </c>
       <c r="L19" t="n">
-        <v>834.8346997140877</v>
+        <v>912.7564163623088</v>
       </c>
       <c r="M19" t="n">
-        <v>932.8880472917069</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N19" t="n">
-        <v>1029.886753383655</v>
+        <v>1458.672677674361</v>
       </c>
       <c r="O19" t="n">
-        <v>1478.804308603759</v>
+        <v>1703.122733210256</v>
       </c>
       <c r="P19" t="n">
-        <v>1773.863841351391</v>
+        <v>1773.863841351392</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R19" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1802.007452933977</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1704.026935512948</v>
+        <v>1573.817469751212</v>
       </c>
       <c r="U19" t="n">
-        <v>1423.885233995453</v>
+        <v>1293.675768233717</v>
       </c>
       <c r="V19" t="n">
-        <v>1142.173766603482</v>
+        <v>1293.675768233717</v>
       </c>
       <c r="W19" t="n">
-        <v>867.3213627759948</v>
+        <v>1018.82336440623</v>
       </c>
       <c r="X19" t="n">
-        <v>624.7574662217999</v>
+        <v>776.2594678520346</v>
       </c>
       <c r="Y19" t="n">
-        <v>398.4146979115419</v>
+        <v>776.2594678520346</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1116.127394853993</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="C20" t="n">
-        <v>689.2266648672935</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D20" t="n">
-        <v>462.2531059305347</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E20" t="n">
-        <v>36.27616607839228</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F20" t="n">
         <v>36.27616607839228</v>
@@ -5749,19 +5749,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J20" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149077</v>
       </c>
       <c r="K20" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250296</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303099</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
@@ -5779,25 +5779,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1749.253343642254</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T20" t="n">
-        <v>1535.975759145523</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U20" t="n">
-        <v>1535.975759145523</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="V20" t="n">
-        <v>1535.975759145523</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="W20" t="n">
-        <v>1535.975759145523</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="X20" t="n">
-        <v>1535.975759145523</v>
+        <v>1730.518272847664</v>
       </c>
       <c r="Y20" t="n">
-        <v>1535.975759145523</v>
+        <v>1730.518272847664</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C21" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D21" t="n">
-        <v>372.0909253760271</v>
+        <v>372.0909253760273</v>
       </c>
       <c r="E21" t="n">
-        <v>267.3889916489643</v>
+        <v>267.3889916489645</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318684</v>
+        <v>173.7431613318686</v>
       </c>
       <c r="G21" t="n">
         <v>80.62417733004328</v>
@@ -5828,55 +5828,55 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>51.80960935527475</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>117.9640444811038</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>243.7326700523438</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>420.3715208829927</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>869.2890761030972</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.206631323202</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1513.250298310688</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P21" t="n">
-        <v>1666.648413157041</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
-        <v>1761.079121131547</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R21" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S21" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T21" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U21" t="n">
-        <v>1427.028547670861</v>
+        <v>1427.028547670862</v>
       </c>
       <c r="V21" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W21" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X21" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>201.7494411104863</v>
+        <v>756.456518764568</v>
       </c>
       <c r="C22" t="n">
-        <v>201.7494411104863</v>
+        <v>584.483955643484</v>
       </c>
       <c r="D22" t="n">
-        <v>201.7494411104863</v>
+        <v>421.1671827702548</v>
       </c>
       <c r="E22" t="n">
-        <v>201.7494411104863</v>
+        <v>421.1671827702548</v>
       </c>
       <c r="F22" t="n">
-        <v>201.7494411104863</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="G22" t="n">
-        <v>36.27616607839228</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I22" t="n">
         <v>36.27616607839228</v>
@@ -5916,46 +5916,46 @@
         <v>138.6345353799611</v>
       </c>
       <c r="L22" t="n">
-        <v>356.3700675499418</v>
+        <v>567.620997569823</v>
       </c>
       <c r="M22" t="n">
-        <v>805.2876227700463</v>
+        <v>1016.538552789928</v>
       </c>
       <c r="N22" t="n">
-        <v>1254.205177990151</v>
+        <v>1465.456108010032</v>
       </c>
       <c r="O22" t="n">
-        <v>1703.122733210255</v>
+        <v>1551.749235832356</v>
       </c>
       <c r="P22" t="n">
-        <v>1773.863841351391</v>
+        <v>1622.490343973492</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S22" t="n">
-        <v>1747.352512880295</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T22" t="n">
-        <v>1507.361678711893</v>
+        <v>1745.750255250287</v>
       </c>
       <c r="U22" t="n">
-        <v>1227.219977194397</v>
+        <v>1745.750255250287</v>
       </c>
       <c r="V22" t="n">
-        <v>945.5085098024263</v>
+        <v>1464.038787858316</v>
       </c>
       <c r="W22" t="n">
-        <v>670.6561059749392</v>
+        <v>1189.186384030829</v>
       </c>
       <c r="X22" t="n">
-        <v>428.0922094207443</v>
+        <v>946.6224874766338</v>
       </c>
       <c r="Y22" t="n">
-        <v>201.7494411104863</v>
+        <v>946.6224874766338</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1413.193624931744</v>
+        <v>1369.925422493848</v>
       </c>
       <c r="C23" t="n">
-        <v>986.2928949450438</v>
+        <v>943.0246925071481</v>
       </c>
       <c r="D23" t="n">
-        <v>986.2928949450438</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="E23" t="n">
-        <v>560.3159550929014</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="F23" t="n">
-        <v>135.1917732823016</v>
+        <v>726.2483323188463</v>
       </c>
       <c r="G23" t="n">
-        <v>49.76845418497139</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="H23" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I23" t="n">
         <v>102.0442972147725</v>
       </c>
       <c r="J23" t="n">
-        <v>263.3013860486619</v>
+        <v>263.3013860486626</v>
       </c>
       <c r="K23" t="n">
-        <v>513.2289698376787</v>
+        <v>513.2289698376794</v>
       </c>
       <c r="L23" t="n">
-        <v>829.2827739385797</v>
+        <v>829.2827739385804</v>
       </c>
       <c r="M23" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N23" t="n">
         <v>1549.440265901615</v>
@@ -6007,34 +6007,34 @@
         <v>1890.365373791551</v>
       </c>
       <c r="P23" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154895</v>
       </c>
       <c r="Q23" t="n">
         <v>2382.200022306146</v>
       </c>
       <c r="R23" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S23" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="T23" t="n">
-        <v>2488.422709248569</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="U23" t="n">
-        <v>2230.250893809106</v>
+        <v>2178.036771025754</v>
       </c>
       <c r="V23" t="n">
-        <v>2230.250893809106</v>
+        <v>2178.036771025754</v>
       </c>
       <c r="W23" t="n">
-        <v>2230.250893809106</v>
+        <v>1781.645421326101</v>
       </c>
       <c r="X23" t="n">
-        <v>1818.530894976853</v>
+        <v>1369.925422493848</v>
       </c>
       <c r="Y23" t="n">
-        <v>1413.193624931744</v>
+        <v>1369.925422493848</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H24" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I24" t="n">
         <v>75.07978914432218</v>
@@ -6077,19 +6077,19 @@
         <v>577.9949147543433</v>
       </c>
       <c r="M24" t="n">
-        <v>874.6212682256946</v>
+        <v>859.2274224705423</v>
       </c>
       <c r="N24" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631354</v>
       </c>
       <c r="O24" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714236</v>
       </c>
       <c r="P24" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455023</v>
       </c>
       <c r="Q24" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541192</v>
       </c>
       <c r="R24" t="n">
         <v>1817.643160879484</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1017.091745149953</v>
+        <v>844.0249220507185</v>
       </c>
       <c r="C25" t="n">
-        <v>919.9495207111468</v>
+        <v>672.0523589296345</v>
       </c>
       <c r="D25" t="n">
-        <v>756.6327478379175</v>
+        <v>672.0523589296345</v>
       </c>
       <c r="E25" t="n">
-        <v>590.424541990771</v>
+        <v>505.844153082488</v>
       </c>
       <c r="F25" t="n">
-        <v>418.5627677653314</v>
+        <v>333.9823788570484</v>
       </c>
       <c r="G25" t="n">
         <v>253.3324186729547</v>
@@ -6144,55 +6144,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I25" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J25" t="n">
         <v>100.4757597880648</v>
       </c>
       <c r="K25" t="n">
-        <v>246.6960581639051</v>
+        <v>331.9727764324779</v>
       </c>
       <c r="L25" t="n">
-        <v>750.9785192448907</v>
+        <v>836.2552375134634</v>
       </c>
       <c r="M25" t="n">
-        <v>1299.889305614171</v>
+        <v>1385.166023882744</v>
       </c>
       <c r="N25" t="n">
-        <v>1831.355460126458</v>
+        <v>1518.599255553151</v>
       </c>
       <c r="O25" t="n">
-        <v>2329.004093722542</v>
+        <v>2016.247889149234</v>
       </c>
       <c r="P25" t="n">
-        <v>2428.541312378488</v>
+        <v>2428.541312378489</v>
       </c>
       <c r="Q25" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S25" t="n">
-        <v>2335.300841815818</v>
+        <v>2336.178859184713</v>
       </c>
       <c r="T25" t="n">
-        <v>2096.347963935299</v>
+        <v>2097.225981304193</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.219512923606</v>
+        <v>1817.0975302925</v>
       </c>
       <c r="V25" t="n">
-        <v>1534.508045531635</v>
+        <v>1535.386062900529</v>
       </c>
       <c r="W25" t="n">
-        <v>1259.655641704148</v>
+        <v>1260.533659073042</v>
       </c>
       <c r="X25" t="n">
-        <v>1017.091745149953</v>
+        <v>1260.533659073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.091745149953</v>
+        <v>1034.190890762784</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>324.1979444598476</v>
+        <v>1967.129872919809</v>
       </c>
       <c r="C26" t="n">
-        <v>324.1979444598476</v>
+        <v>1540.229142933109</v>
       </c>
       <c r="D26" t="n">
-        <v>324.1979444598476</v>
+        <v>1116.936522118109</v>
       </c>
       <c r="E26" t="n">
-        <v>324.1979444598476</v>
+        <v>690.9595822659668</v>
       </c>
       <c r="F26" t="n">
-        <v>324.1979444598476</v>
+        <v>265.835400455367</v>
       </c>
       <c r="G26" t="n">
-        <v>324.1979444598476</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="H26" t="n">
         <v>49.7684541849714</v>
@@ -6226,10 +6226,10 @@
         <v>102.0442972147728</v>
       </c>
       <c r="J26" t="n">
-        <v>263.3013860486622</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K26" t="n">
-        <v>513.228969837679</v>
+        <v>513.2289698376791</v>
       </c>
       <c r="L26" t="n">
         <v>829.2827739385799</v>
@@ -6256,22 +6256,22 @@
         <v>2436.208586465217</v>
       </c>
       <c r="T26" t="n">
-        <v>2436.208586465217</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="U26" t="n">
-        <v>2178.036771025754</v>
+        <v>1967.129872919809</v>
       </c>
       <c r="V26" t="n">
-        <v>1820.547356152003</v>
+        <v>1967.129872919809</v>
       </c>
       <c r="W26" t="n">
-        <v>1424.15600645235</v>
+        <v>1967.129872919809</v>
       </c>
       <c r="X26" t="n">
-        <v>1012.436007620097</v>
+        <v>1967.129872919809</v>
       </c>
       <c r="Y26" t="n">
-        <v>744.0463087513776</v>
+        <v>1967.129872919809</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>49.7684541849714</v>
       </c>
       <c r="I27" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947443</v>
       </c>
       <c r="J27" t="n">
         <v>183.4593521567748</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.922083832231</v>
+        <v>600.5830081276299</v>
       </c>
       <c r="C28" t="n">
-        <v>919.9495207111468</v>
+        <v>428.6104450065459</v>
       </c>
       <c r="D28" t="n">
-        <v>756.6327478379175</v>
+        <v>428.6104450065459</v>
       </c>
       <c r="E28" t="n">
-        <v>590.424541990771</v>
+        <v>428.6104450065459</v>
       </c>
       <c r="F28" t="n">
-        <v>418.5627677653314</v>
+        <v>256.7486707811063</v>
       </c>
       <c r="G28" t="n">
-        <v>253.3324186729547</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="H28" t="n">
         <v>118.6637407256232</v>
@@ -6384,22 +6384,22 @@
         <v>49.7684541849714</v>
       </c>
       <c r="J28" t="n">
-        <v>178.3974764362857</v>
+        <v>128.2827692486061</v>
       </c>
       <c r="K28" t="n">
-        <v>521.8261615648511</v>
+        <v>471.7114543771714</v>
       </c>
       <c r="L28" t="n">
-        <v>1026.108622645836</v>
+        <v>599.6050218669919</v>
       </c>
       <c r="M28" t="n">
-        <v>1161.483928552295</v>
+        <v>1148.515808236273</v>
       </c>
       <c r="N28" t="n">
-        <v>1367.225758175251</v>
+        <v>1679.981962748559</v>
       </c>
       <c r="O28" t="n">
-        <v>1864.874391771335</v>
+        <v>2177.630596344643</v>
       </c>
       <c r="P28" t="n">
         <v>2277.16781500059</v>
@@ -6411,25 +6411,25 @@
         <v>2487.544691879676</v>
       </c>
       <c r="S28" t="n">
-        <v>2487.544691879676</v>
+        <v>2335.300841815819</v>
       </c>
       <c r="T28" t="n">
-        <v>2307.558588628207</v>
+        <v>2096.347963935299</v>
       </c>
       <c r="U28" t="n">
-        <v>2307.558588628207</v>
+        <v>1816.219512923607</v>
       </c>
       <c r="V28" t="n">
-        <v>2025.847121236236</v>
+        <v>1534.508045531635</v>
       </c>
       <c r="W28" t="n">
-        <v>1750.994717408749</v>
+        <v>1259.655641704148</v>
       </c>
       <c r="X28" t="n">
-        <v>1508.430820854554</v>
+        <v>1017.091745149953</v>
       </c>
       <c r="Y28" t="n">
-        <v>1282.088052544296</v>
+        <v>790.7489768396955</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.5881524487378</v>
+        <v>1304.696511882813</v>
       </c>
       <c r="C29" t="n">
-        <v>964.5881524487378</v>
+        <v>877.7957818961125</v>
       </c>
       <c r="D29" t="n">
-        <v>541.2955316337381</v>
+        <v>877.7957818961125</v>
       </c>
       <c r="E29" t="n">
-        <v>541.2955316337381</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="F29" t="n">
-        <v>541.2955316337381</v>
+        <v>451.8188420439701</v>
       </c>
       <c r="G29" t="n">
-        <v>324.1979444598476</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="H29" t="n">
         <v>49.76845418497139</v>
@@ -6469,7 +6469,7 @@
         <v>513.2289698376787</v>
       </c>
       <c r="L29" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M29" t="n">
         <v>1186.099811633997</v>
@@ -6493,22 +6493,22 @@
         <v>2436.208586465217</v>
       </c>
       <c r="T29" t="n">
-        <v>2436.208586465217</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="U29" t="n">
-        <v>2178.036771025753</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="V29" t="n">
-        <v>2178.036771025753</v>
+        <v>1716.416510715065</v>
       </c>
       <c r="W29" t="n">
-        <v>1781.6454213261</v>
+        <v>1716.416510715065</v>
       </c>
       <c r="X29" t="n">
-        <v>1369.925422493847</v>
+        <v>1304.696511882813</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.5881524487378</v>
+        <v>1304.696511882813</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>49.76845418497139</v>
       </c>
       <c r="I30" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947443</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567748</v>
       </c>
       <c r="K30" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144397</v>
       </c>
       <c r="L30" t="n">
-        <v>577.9949147543433</v>
+        <v>593.3887605094956</v>
       </c>
       <c r="M30" t="n">
-        <v>859.2274224705423</v>
+        <v>874.6212682256946</v>
       </c>
       <c r="N30" t="n">
-        <v>1150.244722631354</v>
+        <v>1165.638568386506</v>
       </c>
       <c r="O30" t="n">
-        <v>1412.857980714236</v>
+        <v>1428.251826469389</v>
       </c>
       <c r="P30" t="n">
-        <v>1620.486649455023</v>
+        <v>1635.880495210175</v>
       </c>
       <c r="Q30" t="n">
         <v>1766.562892296344</v>
@@ -6603,43 +6603,43 @@
         <v>428.6104450065454</v>
       </c>
       <c r="D31" t="n">
-        <v>265.2936721333161</v>
+        <v>428.6104450065454</v>
       </c>
       <c r="E31" t="n">
-        <v>253.3324186729547</v>
+        <v>386.8605775027877</v>
       </c>
       <c r="F31" t="n">
-        <v>253.3324186729547</v>
+        <v>214.9988032773481</v>
       </c>
       <c r="G31" t="n">
-        <v>253.3324186729547</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6637407256232</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="I31" t="n">
         <v>49.76845418497139</v>
       </c>
       <c r="J31" t="n">
-        <v>178.3974764362857</v>
+        <v>150.5499821493619</v>
       </c>
       <c r="K31" t="n">
-        <v>274.543552450829</v>
+        <v>246.6960581639051</v>
       </c>
       <c r="L31" t="n">
-        <v>402.4371199406495</v>
+        <v>750.9785192448907</v>
       </c>
       <c r="M31" t="n">
-        <v>951.3479063099303</v>
+        <v>1299.889305614171</v>
       </c>
       <c r="N31" t="n">
-        <v>1482.814060822217</v>
+        <v>1831.355460126458</v>
       </c>
       <c r="O31" t="n">
-        <v>1980.462694418301</v>
+        <v>2329.004093722542</v>
       </c>
       <c r="P31" t="n">
-        <v>2277.167815000589</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q31" t="n">
         <v>2488.422709248569</v>
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>802.9116035966715</v>
+        <v>901.7933659822711</v>
       </c>
       <c r="C32" t="n">
-        <v>376.0108736099716</v>
+        <v>474.8926359955712</v>
       </c>
       <c r="D32" t="n">
-        <v>49.7684541849714</v>
+        <v>474.8926359955712</v>
       </c>
       <c r="E32" t="n">
-        <v>49.7684541849714</v>
+        <v>474.8926359955712</v>
       </c>
       <c r="F32" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="G32" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="H32" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="I32" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J32" t="n">
-        <v>263.3013860486629</v>
+        <v>263.3013860486624</v>
       </c>
       <c r="K32" t="n">
-        <v>513.2289698376795</v>
+        <v>513.2289698376791</v>
       </c>
       <c r="L32" t="n">
-        <v>829.2827739385805</v>
+        <v>829.2827739385799</v>
       </c>
       <c r="M32" t="n">
-        <v>1186.099811633998</v>
+        <v>1186.099811633997</v>
       </c>
       <c r="N32" t="n">
         <v>1549.440265901615</v>
@@ -6718,34 +6718,34 @@
         <v>1890.365373791551</v>
       </c>
       <c r="P32" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q32" t="n">
         <v>2382.200022306146</v>
       </c>
       <c r="R32" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S32" t="n">
         <v>2436.208586465217</v>
       </c>
       <c r="T32" t="n">
-        <v>2436.208586465217</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="U32" t="n">
-        <v>2436.208586465217</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="V32" t="n">
-        <v>2436.208586465217</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="W32" t="n">
-        <v>2039.817236765564</v>
+        <v>1718.850634859633</v>
       </c>
       <c r="X32" t="n">
-        <v>1628.097237933311</v>
+        <v>1307.130636027381</v>
       </c>
       <c r="Y32" t="n">
-        <v>1222.759967888202</v>
+        <v>901.7933659822711</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H33" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="I33" t="n">
         <v>75.07978914432218</v>
       </c>
       <c r="J33" t="n">
-        <v>183.4593521567748</v>
+        <v>168.0655064016225</v>
       </c>
       <c r="K33" t="n">
-        <v>355.0869125144397</v>
+        <v>339.6930667592875</v>
       </c>
       <c r="L33" t="n">
-        <v>593.3887605094956</v>
+        <v>577.9949147543433</v>
       </c>
       <c r="M33" t="n">
-        <v>874.6212682256946</v>
+        <v>859.2274224705423</v>
       </c>
       <c r="N33" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631354</v>
       </c>
       <c r="O33" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714236</v>
       </c>
       <c r="P33" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455023</v>
       </c>
       <c r="Q33" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541192</v>
       </c>
       <c r="R33" t="n">
         <v>1817.643160879484</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.922083832231</v>
+        <v>600.5830081276295</v>
       </c>
       <c r="C34" t="n">
-        <v>919.9495207111468</v>
+        <v>428.6104450065454</v>
       </c>
       <c r="D34" t="n">
-        <v>756.6327478379175</v>
+        <v>428.6104450065454</v>
       </c>
       <c r="E34" t="n">
-        <v>590.424541990771</v>
+        <v>262.402239159399</v>
       </c>
       <c r="F34" t="n">
-        <v>418.5627677653314</v>
+        <v>90.54046493395938</v>
       </c>
       <c r="G34" t="n">
-        <v>253.3324186729547</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6637407256232</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="I34" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="J34" t="n">
-        <v>100.4757597880648</v>
+        <v>150.5499821493619</v>
       </c>
       <c r="K34" t="n">
-        <v>443.9044449166302</v>
+        <v>246.6960581639051</v>
       </c>
       <c r="L34" t="n">
-        <v>948.1869059976157</v>
+        <v>750.9785192448907</v>
       </c>
       <c r="M34" t="n">
-        <v>1083.562211904075</v>
+        <v>1299.889305614171</v>
       </c>
       <c r="N34" t="n">
-        <v>1367.225758175251</v>
+        <v>1831.355460126458</v>
       </c>
       <c r="O34" t="n">
-        <v>1864.874391771335</v>
+        <v>2329.004093722542</v>
       </c>
       <c r="P34" t="n">
-        <v>2277.16781500059</v>
+        <v>2428.541312378488</v>
       </c>
       <c r="Q34" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R34" t="n">
-        <v>2488.42270924857</v>
+        <v>2487.544691879676</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.178859184713</v>
+        <v>2335.300841815818</v>
       </c>
       <c r="T34" t="n">
-        <v>2097.225981304193</v>
+        <v>2096.347963935299</v>
       </c>
       <c r="U34" t="n">
-        <v>1817.0975302925</v>
+        <v>1816.219512923606</v>
       </c>
       <c r="V34" t="n">
-        <v>1817.0975302925</v>
+        <v>1534.508045531635</v>
       </c>
       <c r="W34" t="n">
-        <v>1542.245126465013</v>
+        <v>1259.655641704148</v>
       </c>
       <c r="X34" t="n">
-        <v>1508.430820854554</v>
+        <v>1017.091745149953</v>
       </c>
       <c r="Y34" t="n">
-        <v>1282.088052544296</v>
+        <v>790.748976839695</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>726.2483323188463</v>
+        <v>1576.441683120546</v>
       </c>
       <c r="C35" t="n">
-        <v>726.2483323188463</v>
+        <v>1149.540953133846</v>
       </c>
       <c r="D35" t="n">
         <v>726.2483323188463</v>
@@ -6934,25 +6934,25 @@
         <v>49.7684541849714</v>
       </c>
       <c r="I35" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147728</v>
       </c>
       <c r="J35" t="n">
-        <v>263.3013860486619</v>
+        <v>263.3013860486626</v>
       </c>
       <c r="K35" t="n">
-        <v>513.2289698376786</v>
+        <v>513.2289698376794</v>
       </c>
       <c r="L35" t="n">
-        <v>829.2827739385796</v>
+        <v>829.2827739385804</v>
       </c>
       <c r="M35" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N35" t="n">
-        <v>1549.440265901614</v>
+        <v>1549.440265901615</v>
       </c>
       <c r="O35" t="n">
-        <v>1890.36537379155</v>
+        <v>1890.365373791551</v>
       </c>
       <c r="P35" t="n">
         <v>2175.730653154894</v>
@@ -6964,25 +6964,25 @@
         <v>2488.42270924857</v>
       </c>
       <c r="S35" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="T35" t="n">
-        <v>2277.515811142625</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="U35" t="n">
-        <v>2019.343995703161</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="V35" t="n">
-        <v>1661.854580829411</v>
+        <v>1867.812273485522</v>
       </c>
       <c r="W35" t="n">
-        <v>1265.463231129758</v>
+        <v>1867.812273485522</v>
       </c>
       <c r="X35" t="n">
-        <v>853.7432322975051</v>
+        <v>1867.812273485522</v>
       </c>
       <c r="Y35" t="n">
-        <v>853.7432322975051</v>
+        <v>1867.812273485522</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>49.7684541849714</v>
       </c>
       <c r="I36" t="n">
-        <v>90.47363489947443</v>
+        <v>75.07978914432218</v>
       </c>
       <c r="J36" t="n">
-        <v>183.4593521567748</v>
+        <v>168.0655064016225</v>
       </c>
       <c r="K36" t="n">
-        <v>355.0869125144397</v>
+        <v>339.6930667592875</v>
       </c>
       <c r="L36" t="n">
-        <v>593.3887605094956</v>
+        <v>577.9949147543433</v>
       </c>
       <c r="M36" t="n">
-        <v>874.6212682256946</v>
+        <v>859.2274224705423</v>
       </c>
       <c r="N36" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631354</v>
       </c>
       <c r="O36" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714236</v>
       </c>
       <c r="P36" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455023</v>
       </c>
       <c r="Q36" t="n">
         <v>1766.562892296344</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.4354119551169</v>
+        <v>753.704875560381</v>
       </c>
       <c r="C37" t="n">
-        <v>703.4628488340329</v>
+        <v>581.7323124392969</v>
       </c>
       <c r="D37" t="n">
-        <v>540.1460759608036</v>
+        <v>418.4155395660677</v>
       </c>
       <c r="E37" t="n">
-        <v>521.5292554501192</v>
+        <v>418.4155395660677</v>
       </c>
       <c r="F37" t="n">
-        <v>349.6674812246796</v>
+        <v>246.5537653406281</v>
       </c>
       <c r="G37" t="n">
-        <v>184.4371321323029</v>
+        <v>246.5537653406281</v>
       </c>
       <c r="H37" t="n">
-        <v>49.7684541849714</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I37" t="n">
         <v>49.7684541849714</v>
@@ -7107,40 +7107,40 @@
         <v>1575.019409015117</v>
       </c>
       <c r="N37" t="n">
-        <v>1744.928082478455</v>
+        <v>2106.485563527404</v>
       </c>
       <c r="O37" t="n">
-        <v>1864.874391771335</v>
+        <v>2226.431872820284</v>
       </c>
       <c r="P37" t="n">
-        <v>2277.16781500059</v>
+        <v>2428.541312378489</v>
       </c>
       <c r="Q37" t="n">
         <v>2488.42270924857</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S37" t="n">
-        <v>2335.300841815819</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="T37" t="n">
-        <v>2096.347963935299</v>
+        <v>2249.46983136805</v>
       </c>
       <c r="U37" t="n">
-        <v>1816.219512923607</v>
+        <v>1969.341380356358</v>
       </c>
       <c r="V37" t="n">
-        <v>1534.508045531635</v>
+        <v>1687.629912964386</v>
       </c>
       <c r="W37" t="n">
-        <v>1534.508045531635</v>
+        <v>1412.777509136899</v>
       </c>
       <c r="X37" t="n">
-        <v>1291.944148977441</v>
+        <v>1170.213612582705</v>
       </c>
       <c r="Y37" t="n">
-        <v>1065.601380667183</v>
+        <v>943.8708442724467</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>644.80176611192</v>
+        <v>630.9066403166291</v>
       </c>
       <c r="C38" t="n">
-        <v>473.0610749999711</v>
+        <v>204.0059103299292</v>
       </c>
       <c r="D38" t="n">
-        <v>49.7684541849714</v>
+        <v>204.0059103299292</v>
       </c>
       <c r="E38" t="n">
-        <v>49.7684541849714</v>
+        <v>204.0059103299292</v>
       </c>
       <c r="F38" t="n">
-        <v>49.7684541849714</v>
+        <v>204.0059103299292</v>
       </c>
       <c r="G38" t="n">
-        <v>49.7684541849714</v>
+        <v>204.0059103299292</v>
       </c>
       <c r="H38" t="n">
         <v>49.7684541849714</v>
@@ -7174,16 +7174,16 @@
         <v>102.0442972147728</v>
       </c>
       <c r="J38" t="n">
-        <v>263.3013860486624</v>
+        <v>263.3013860486626</v>
       </c>
       <c r="K38" t="n">
-        <v>513.2289698376791</v>
+        <v>513.2289698376794</v>
       </c>
       <c r="L38" t="n">
-        <v>829.28277393858</v>
+        <v>829.2827739385804</v>
       </c>
       <c r="M38" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N38" t="n">
         <v>1549.440265901615</v>
@@ -7192,7 +7192,7 @@
         <v>1890.365373791551</v>
       </c>
       <c r="P38" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q38" t="n">
         <v>2382.200022306146</v>
@@ -7201,25 +7201,25 @@
         <v>2488.42270924857</v>
       </c>
       <c r="S38" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="T38" t="n">
-        <v>2488.42270924857</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="U38" t="n">
-        <v>2230.250893809106</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="V38" t="n">
-        <v>1872.761478935356</v>
+        <v>1867.812273485522</v>
       </c>
       <c r="W38" t="n">
-        <v>1476.370129235703</v>
+        <v>1867.812273485522</v>
       </c>
       <c r="X38" t="n">
-        <v>1064.65013040345</v>
+        <v>1456.092274653269</v>
       </c>
       <c r="Y38" t="n">
-        <v>1064.65013040345</v>
+        <v>1050.755004608159</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>888.3581193442475</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="C40" t="n">
-        <v>716.3855562231635</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="D40" t="n">
-        <v>553.0687833499342</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E40" t="n">
-        <v>386.8605775027877</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F40" t="n">
-        <v>214.9988032773481</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G40" t="n">
-        <v>49.7684541849714</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H40" t="n">
-        <v>49.7684541849714</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I40" t="n">
         <v>49.7684541849714</v>
       </c>
       <c r="J40" t="n">
-        <v>178.3974764362857</v>
+        <v>100.4757597880648</v>
       </c>
       <c r="K40" t="n">
-        <v>521.8261615648511</v>
+        <v>196.6218358026081</v>
       </c>
       <c r="L40" t="n">
-        <v>1026.108622645836</v>
+        <v>700.9042968835936</v>
       </c>
       <c r="M40" t="n">
-        <v>1575.019409015117</v>
+        <v>1249.815083252875</v>
       </c>
       <c r="N40" t="n">
-        <v>1744.928082478455</v>
+        <v>1781.281237765161</v>
       </c>
       <c r="O40" t="n">
-        <v>1864.874391771335</v>
+        <v>2278.929871361245</v>
       </c>
       <c r="P40" t="n">
-        <v>2277.16781500059</v>
+        <v>2428.541312378489</v>
       </c>
       <c r="Q40" t="n">
         <v>2488.42270924857</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S40" t="n">
-        <v>2335.300841815819</v>
+        <v>2336.178859184713</v>
       </c>
       <c r="T40" t="n">
-        <v>2096.347963935299</v>
+        <v>2097.225981304193</v>
       </c>
       <c r="U40" t="n">
-        <v>1816.219512923607</v>
+        <v>1817.0975302925</v>
       </c>
       <c r="V40" t="n">
-        <v>1534.508045531635</v>
+        <v>1535.386062900529</v>
       </c>
       <c r="W40" t="n">
-        <v>1357.2647842087</v>
+        <v>1260.533659073042</v>
       </c>
       <c r="X40" t="n">
-        <v>1114.700887654506</v>
+        <v>1017.969762518847</v>
       </c>
       <c r="Y40" t="n">
-        <v>888.3581193442475</v>
+        <v>919.9495207111468</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2130.93329437482</v>
+        <v>1150.890158928625</v>
       </c>
       <c r="C41" t="n">
-        <v>2000.642074796589</v>
+        <v>723.9894289419253</v>
       </c>
       <c r="D41" t="n">
-        <v>1577.349453981589</v>
+        <v>723.9894289419253</v>
       </c>
       <c r="E41" t="n">
-        <v>1151.372514129446</v>
+        <v>298.0124890897829</v>
       </c>
       <c r="F41" t="n">
-        <v>726.2483323188463</v>
+        <v>298.0124890897829</v>
       </c>
       <c r="G41" t="n">
-        <v>324.1979444598476</v>
+        <v>298.0124890897829</v>
       </c>
       <c r="H41" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="I41" t="n">
         <v>102.0442972147729</v>
@@ -7414,49 +7414,49 @@
         <v>263.3013860486625</v>
       </c>
       <c r="K41" t="n">
-        <v>513.2289698376792</v>
+        <v>513.2289698376785</v>
       </c>
       <c r="L41" t="n">
-        <v>829.2827739385802</v>
+        <v>829.2827739385798</v>
       </c>
       <c r="M41" t="n">
         <v>1186.099811633997</v>
       </c>
       <c r="N41" t="n">
-        <v>1549.440265901615</v>
+        <v>1549.440265901614</v>
       </c>
       <c r="O41" t="n">
-        <v>1890.365373791551</v>
+        <v>1890.36537379155</v>
       </c>
       <c r="P41" t="n">
-        <v>2175.730653154895</v>
+        <v>2175.730653154894</v>
       </c>
       <c r="Q41" t="n">
         <v>2382.200022306146</v>
       </c>
       <c r="R41" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S41" t="n">
-        <v>2488.42270924857</v>
+        <v>2436.208586465217</v>
       </c>
       <c r="T41" t="n">
-        <v>2488.42270924857</v>
+        <v>2225.301688359272</v>
       </c>
       <c r="U41" t="n">
-        <v>2488.42270924857</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="V41" t="n">
-        <v>2130.93329437482</v>
+        <v>1967.129872919808</v>
       </c>
       <c r="W41" t="n">
-        <v>2130.93329437482</v>
+        <v>1570.738523220155</v>
       </c>
       <c r="X41" t="n">
-        <v>2130.93329437482</v>
+        <v>1570.738523220155</v>
       </c>
       <c r="Y41" t="n">
-        <v>2130.93329437482</v>
+        <v>1570.738523220155</v>
       </c>
     </row>
     <row r="42">
@@ -7484,16 +7484,16 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H42" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="I42" t="n">
-        <v>75.07978914432218</v>
+        <v>90.47363489947443</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0655064016225</v>
+        <v>183.4593521567748</v>
       </c>
       <c r="K42" t="n">
-        <v>339.6930667592875</v>
+        <v>355.0869125144397</v>
       </c>
       <c r="L42" t="n">
         <v>593.3887605094956</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>752.8268581914872</v>
+        <v>926.691734739854</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8542950704032</v>
+        <v>754.71917161877</v>
       </c>
       <c r="D43" t="n">
-        <v>417.5375221971739</v>
+        <v>591.4023987455407</v>
       </c>
       <c r="E43" t="n">
-        <v>251.3293163500274</v>
+        <v>425.1941928983942</v>
       </c>
       <c r="F43" t="n">
-        <v>79.46754212458785</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="G43" t="n">
-        <v>79.46754212458785</v>
+        <v>253.3324186729547</v>
       </c>
       <c r="H43" t="n">
-        <v>79.46754212458785</v>
+        <v>118.6637407256232</v>
       </c>
       <c r="I43" t="n">
-        <v>49.7684541849714</v>
+        <v>49.76845418497139</v>
       </c>
       <c r="J43" t="n">
         <v>100.4757597880648</v>
@@ -7575,46 +7575,46 @@
         <v>196.6218358026081</v>
       </c>
       <c r="L43" t="n">
-        <v>700.9042968835936</v>
+        <v>599.6050218669915</v>
       </c>
       <c r="M43" t="n">
-        <v>1249.815083252875</v>
+        <v>1148.515808236272</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.281237765161</v>
+        <v>1679.981962748559</v>
       </c>
       <c r="O43" t="n">
-        <v>2278.929871361245</v>
+        <v>2177.630596344643</v>
       </c>
       <c r="P43" t="n">
-        <v>2428.541312378489</v>
+        <v>2277.167815000589</v>
       </c>
       <c r="Q43" t="n">
-        <v>2488.42270924857</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.544691879676</v>
+        <v>2488.422709248569</v>
       </c>
       <c r="S43" t="n">
-        <v>2487.544691879676</v>
+        <v>2422.456690547523</v>
       </c>
       <c r="T43" t="n">
-        <v>2248.591813999156</v>
+        <v>2422.456690547523</v>
       </c>
       <c r="U43" t="n">
-        <v>1968.463362987464</v>
+        <v>2142.328239535831</v>
       </c>
       <c r="V43" t="n">
-        <v>1686.751895595493</v>
+        <v>1860.616772143859</v>
       </c>
       <c r="W43" t="n">
-        <v>1411.899491768006</v>
+        <v>1585.764368316372</v>
       </c>
       <c r="X43" t="n">
-        <v>1169.335595213811</v>
+        <v>1343.200471762178</v>
       </c>
       <c r="Y43" t="n">
-        <v>942.9928269035529</v>
+        <v>1116.85770345192</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>857.142187555173</v>
+        <v>2025.49241692429</v>
       </c>
       <c r="C44" t="n">
-        <v>857.142187555173</v>
+        <v>1598.59168693759</v>
       </c>
       <c r="D44" t="n">
-        <v>857.142187555173</v>
+        <v>1175.29906612259</v>
       </c>
       <c r="E44" t="n">
-        <v>857.142187555173</v>
+        <v>749.3221262704474</v>
       </c>
       <c r="F44" t="n">
-        <v>726.2483323188463</v>
+        <v>324.1979444598476</v>
       </c>
       <c r="G44" t="n">
         <v>324.1979444598476</v>
       </c>
       <c r="H44" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I44" t="n">
-        <v>102.0442972147725</v>
+        <v>102.0442972147729</v>
       </c>
       <c r="J44" t="n">
-        <v>263.3013860486619</v>
+        <v>263.3013860486625</v>
       </c>
       <c r="K44" t="n">
-        <v>513.2289698376787</v>
+        <v>513.2289698376792</v>
       </c>
       <c r="L44" t="n">
-        <v>829.2827739385797</v>
+        <v>829.2827739385802</v>
       </c>
       <c r="M44" t="n">
-        <v>1186.099811633997</v>
+        <v>1186.099811633998</v>
       </c>
       <c r="N44" t="n">
         <v>1549.440265901615</v>
       </c>
       <c r="O44" t="n">
-        <v>1890.36537379155</v>
+        <v>1890.365373791551</v>
       </c>
       <c r="P44" t="n">
-        <v>2175.730653154894</v>
+        <v>2175.730653154895</v>
       </c>
       <c r="Q44" t="n">
         <v>2382.200022306146</v>
       </c>
       <c r="R44" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="S44" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="T44" t="n">
-        <v>2436.208586465217</v>
+        <v>2436.208586465218</v>
       </c>
       <c r="U44" t="n">
-        <v>2436.208586465217</v>
+        <v>2382.98183179804</v>
       </c>
       <c r="V44" t="n">
-        <v>2078.719171591466</v>
+        <v>2025.49241692429</v>
       </c>
       <c r="W44" t="n">
-        <v>1682.327821891813</v>
+        <v>2025.49241692429</v>
       </c>
       <c r="X44" t="n">
-        <v>1682.327821891813</v>
+        <v>2025.49241692429</v>
       </c>
       <c r="Y44" t="n">
-        <v>1276.990551846703</v>
+        <v>2025.49241692429</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>91.31798361203343</v>
       </c>
       <c r="H45" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="I45" t="n">
-        <v>75.07978914432218</v>
+        <v>75.07978914432219</v>
       </c>
       <c r="J45" t="n">
-        <v>183.4593521567748</v>
+        <v>168.0655064016225</v>
       </c>
       <c r="K45" t="n">
-        <v>355.0869125144397</v>
+        <v>339.6930667592875</v>
       </c>
       <c r="L45" t="n">
-        <v>593.3887605094956</v>
+        <v>577.9949147543434</v>
       </c>
       <c r="M45" t="n">
-        <v>874.6212682256946</v>
+        <v>859.2274224705425</v>
       </c>
       <c r="N45" t="n">
-        <v>1165.638568386506</v>
+        <v>1150.244722631354</v>
       </c>
       <c r="O45" t="n">
-        <v>1428.251826469389</v>
+        <v>1412.857980714237</v>
       </c>
       <c r="P45" t="n">
-        <v>1635.880495210175</v>
+        <v>1620.486649455023</v>
       </c>
       <c r="Q45" t="n">
-        <v>1766.562892296344</v>
+        <v>1751.169046541193</v>
       </c>
       <c r="R45" t="n">
         <v>1817.643160879484</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>843.1469046818243</v>
+        <v>1091.922083832231</v>
       </c>
       <c r="C46" t="n">
-        <v>671.1743415607402</v>
+        <v>919.9495207111468</v>
       </c>
       <c r="D46" t="n">
-        <v>671.1743415607402</v>
+        <v>756.6327478379175</v>
       </c>
       <c r="E46" t="n">
-        <v>504.9661357135938</v>
+        <v>590.424541990771</v>
       </c>
       <c r="F46" t="n">
-        <v>333.1043614881542</v>
+        <v>418.5627677653314</v>
       </c>
       <c r="G46" t="n">
         <v>253.3324186729547</v>
@@ -7803,55 +7803,55 @@
         <v>118.6637407256232</v>
       </c>
       <c r="I46" t="n">
-        <v>49.76845418497139</v>
+        <v>49.7684541849714</v>
       </c>
       <c r="J46" t="n">
         <v>178.3974764362857</v>
       </c>
       <c r="K46" t="n">
-        <v>274.543552450829</v>
+        <v>521.8261615648511</v>
       </c>
       <c r="L46" t="n">
-        <v>778.8260135318145</v>
+        <v>1026.108622645837</v>
       </c>
       <c r="M46" t="n">
-        <v>914.2013194382735</v>
+        <v>1161.483928552296</v>
       </c>
       <c r="N46" t="n">
-        <v>1367.225758175251</v>
+        <v>1367.225758175252</v>
       </c>
       <c r="O46" t="n">
-        <v>1864.874391771335</v>
+        <v>1864.874391771336</v>
       </c>
       <c r="P46" t="n">
-        <v>2277.167815000589</v>
+        <v>2277.16781500059</v>
       </c>
       <c r="Q46" t="n">
-        <v>2488.422709248569</v>
+        <v>2488.42270924857</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.544691879676</v>
+        <v>2487.544691879677</v>
       </c>
       <c r="S46" t="n">
-        <v>2335.300841815818</v>
+        <v>2335.300841815819</v>
       </c>
       <c r="T46" t="n">
-        <v>2096.347963935299</v>
+        <v>2096.3479639353</v>
       </c>
       <c r="U46" t="n">
-        <v>1816.219512923606</v>
+        <v>2025.847121236236</v>
       </c>
       <c r="V46" t="n">
-        <v>1534.508045531635</v>
+        <v>2025.847121236236</v>
       </c>
       <c r="W46" t="n">
-        <v>1259.655641704148</v>
+        <v>1750.994717408749</v>
       </c>
       <c r="X46" t="n">
-        <v>1259.655641704148</v>
+        <v>1508.430820854554</v>
       </c>
       <c r="Y46" t="n">
-        <v>1033.31287339389</v>
+        <v>1282.088052544296</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.5903457215977</v>
+        <v>176.896097393909</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8853,10 +8853,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>360.0219516362447</v>
+        <v>164.3028390962583</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N13" t="n">
         <v>355.4735849779358</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.786655404040118</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>108.9901417899362</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>70.37539003541769</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.4382709420381</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362448</v>
+        <v>164.3028390962583</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.8754625841163</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.37539003541823</v>
+        <v>70.37539003541727</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>360.0219516362448</v>
+        <v>360.0219516362449</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>354.408290547965</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>366.2873004017981</v>
+        <v>159.7544724379497</v>
       </c>
       <c r="P19" t="n">
-        <v>226.5842672792887</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>242.0634916556459</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>234.1036094826144</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R21" t="n">
-        <v>19.47626727989361</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>126.5047566361197</v>
+        <v>339.8895344339795</v>
       </c>
       <c r="M22" t="n">
         <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>355.4735849779359</v>
+        <v>355.473584977936</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017981</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>15.54933914661848</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>15.54933914661856</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>50.58002258716868</v>
+        <v>136.7181218483533</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9807,13 +9807,13 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>15.54933914661844</v>
       </c>
       <c r="J27" t="n">
-        <v>15.54933914661844</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>28.08788834398106</v>
       </c>
       <c r="K28" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>73.03898783085833</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>152.9025226039384</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>15.54933914661845</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>15.54933914661851</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>50.58002258716871</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10287,10 +10287,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>199.1594968952946</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>15.54933914661844</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>15.54933914661856</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>50.58002258716871</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>151.7477925260309</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>15.54933914661844</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>15.54933914661851</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10755,16 +10755,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>36.84388059892046</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>103.6083039416745</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10992,16 +10992,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>36.84388059892046</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>50.58002258716856</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>15.54933914661845</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>15.54933914661842</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>277.8683015904675</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11235,10 +11235,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>50.58002258716857</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>15.54933914661844</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>15.5493391466181</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>322.8194010773447</v>
+        <v>73.0389878308583</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -23260,7 +23260,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>14.95505452775313</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23269,10 +23269,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>145.7448513509947</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.632988972596</v>
@@ -23323,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>135.4602252892499</v>
@@ -23466,25 +23466,25 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>114.2271204034875</v>
+        <v>2.500881054921024</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,10 +23503,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>115.1758553963994</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>127.3252928733742</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81.57833457425646</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>130.7334610444093</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>75.43872475250879</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578064</v>
+        <v>11.68284247578063</v>
       </c>
       <c r="S16" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>125.566510179035</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H17" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458682</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>368.5268633931062</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>8.753397395931358</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.68284247578062</v>
       </c>
       <c r="S19" t="n">
         <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>140.5902135799</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>194.3558712594585</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.5660300744983</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
         <v>255.632988972596</v>
@@ -24034,7 +24034,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>325.1456680827</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>89.12137967223599</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>181.8963001198653</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>204.451098020431</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>313.4607980740518</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>271.6851953721275</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>208.7978291248855</v>
@@ -24268,13 +24268,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>74.08203529545497</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>83.7345850192002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.0298839804087</v>
+        <v>184.123607172717</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>135.578095464626</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>26.8739648465247</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>150.7214115632189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>58.37710688276044</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3271665015756</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>183.1032726782572</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>271.6851953721275</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>105.7082921423173</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>152.7044828629172</v>
+        <v>123.2137549599548</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5780456014529</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>96.07969937609948</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.0298839804087</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>146.6309905230834</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>123.2137549599548</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.3219911678582</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>68.20633367524529</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.8692371952046898</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.6620950342987</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>289.4299296697426</v>
+        <v>127.1929961872886</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.1154714830974</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.5780456014529</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.710866799003369</v>
       </c>
       <c r="I37" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>150.7214115632189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>252.6084384860035</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -25408,7 +25408,7 @@
         <v>398.0298839804087</v>
       </c>
       <c r="H38" t="n">
-        <v>271.6851953721275</v>
+        <v>118.9901137886192</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.5900972850689</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.20633367524529</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>96.63305107950643</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.0393012375319</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>293.6434153043842</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>25.92360081636409</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.69198155551911</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7978291248855</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5900972850689</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25803,10 +25803,10 @@
         <v>163.5780456014529</v>
       </c>
       <c r="H43" t="n">
-        <v>133.3219911678582</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>38.804236615025</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.8692371952046898</v>
       </c>
       <c r="S43" t="n">
-        <v>150.7214115632189</v>
+        <v>85.41505304918303</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.5633491017144</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>291.2880233085303</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.0298839804087</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>208.7978291248855</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5900972850689</v>
+        <v>202.8956101645628</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.60382221440548</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>207.531332229503</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>369880.1723954225</v>
+        <v>369880.1723954226</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>369880.1723954226</v>
+        <v>369880.1723954227</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>369880.1723954225</v>
+        <v>369880.1723954226</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>447189.0546579247</v>
+        <v>447189.0546579248</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>447189.0546579249</v>
+        <v>447189.0546579247</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>447189.054657925</v>
+        <v>447189.0546579249</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>447189.0546579247</v>
+        <v>447189.054657925</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344254.3268475797</v>
+        <v>344254.3268475795</v>
       </c>
       <c r="C2" t="n">
         <v>344254.3268475797</v>
@@ -26328,13 +26328,13 @@
         <v>184523.1391850204</v>
       </c>
       <c r="G2" t="n">
-        <v>184523.1391850203</v>
+        <v>184523.1391850204</v>
       </c>
       <c r="H2" t="n">
         <v>184523.1391850203</v>
       </c>
       <c r="I2" t="n">
-        <v>226562.4837613009</v>
+        <v>226562.4837613008</v>
       </c>
       <c r="J2" t="n">
         <v>226562.4837613009</v>
@@ -26355,7 +26355,7 @@
         <v>226562.4837613009</v>
       </c>
       <c r="P2" t="n">
-        <v>226562.4837613008</v>
+        <v>226562.483761301</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>145239.9140696164</v>
+        <v>145239.9140696165</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>317830.1996208769</v>
       </c>
       <c r="E4" t="n">
-        <v>16604.03394553453</v>
+        <v>16604.03394553452</v>
       </c>
       <c r="F4" t="n">
         <v>16604.03394553452</v>
@@ -26435,7 +26435,7 @@
         <v>16604.03394553452</v>
       </c>
       <c r="H4" t="n">
-        <v>16604.03394553452</v>
+        <v>16604.03394553454</v>
       </c>
       <c r="I4" t="n">
         <v>13440.66149177729</v>
@@ -26450,7 +26450,7 @@
         <v>13440.66149177729</v>
       </c>
       <c r="M4" t="n">
-        <v>13440.66149177729</v>
+        <v>13440.6614917773</v>
       </c>
       <c r="N4" t="n">
         <v>13440.66149177729</v>
@@ -26481,16 +26481,16 @@
         <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="G5" t="n">
-        <v>36949.30081304155</v>
+        <v>36949.30081304156</v>
       </c>
       <c r="H5" t="n">
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.82600576629</v>
       </c>
       <c r="J5" t="n">
         <v>50110.82600576629</v>
@@ -26499,7 +26499,7 @@
         <v>50110.82600576628</v>
       </c>
       <c r="L5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576628</v>
       </c>
       <c r="M5" t="n">
         <v>50110.82600576629</v>
@@ -26508,10 +26508,10 @@
         <v>50110.82600576629</v>
       </c>
       <c r="O5" t="n">
-        <v>50110.82600576629</v>
+        <v>50110.82600576628</v>
       </c>
       <c r="P5" t="n">
-        <v>50110.82600576628</v>
+        <v>50110.8260057663</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7203.472773297108</v>
+        <v>-7225.186414793747</v>
       </c>
       <c r="C6" t="n">
-        <v>-7203.472773297166</v>
+        <v>-7225.186414793514</v>
       </c>
       <c r="D6" t="n">
-        <v>-7203.472773297108</v>
+        <v>-7225.186414793572</v>
       </c>
       <c r="E6" t="n">
-        <v>-350083.8454160474</v>
+        <v>-350771.1056728043</v>
       </c>
       <c r="F6" t="n">
-        <v>130969.8044264444</v>
+        <v>130282.5441696873</v>
       </c>
       <c r="G6" t="n">
-        <v>130969.8044264442</v>
+        <v>130282.5441696874</v>
       </c>
       <c r="H6" t="n">
-        <v>130969.8044264442</v>
+        <v>130282.5441696872</v>
       </c>
       <c r="I6" t="n">
-        <v>17771.08219414094</v>
+        <v>17258.98587311822</v>
       </c>
       <c r="J6" t="n">
-        <v>163010.9962637573</v>
+        <v>162498.8999427348</v>
       </c>
       <c r="K6" t="n">
-        <v>163010.9962637573</v>
+        <v>162498.8999427348</v>
       </c>
       <c r="L6" t="n">
-        <v>163010.9962637573</v>
+        <v>162498.8999427348</v>
       </c>
       <c r="M6" t="n">
-        <v>50008.92512126143</v>
+        <v>49496.82880023897</v>
       </c>
       <c r="N6" t="n">
-        <v>163010.9962637573</v>
+        <v>162498.8999427349</v>
       </c>
       <c r="O6" t="n">
-        <v>163010.9962637573</v>
+        <v>162498.8999427348</v>
       </c>
       <c r="P6" t="n">
-        <v>163010.9962637573</v>
+        <v>162498.8999427349</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.2483758469462</v>
       </c>
       <c r="H3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="I3" t="n">
         <v>563.6147167517445</v>
@@ -26779,7 +26779,7 @@
         <v>563.6147167517445</v>
       </c>
       <c r="P3" t="n">
-        <v>563.6147167517445</v>
+        <v>563.6147167517446</v>
       </c>
     </row>
     <row r="4">
@@ -26804,13 +26804,13 @@
         <v>453.4520759799035</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="H4" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.1056773121425</v>
       </c>
       <c r="J4" t="n">
         <v>622.1056773121425</v>
@@ -26819,7 +26819,7 @@
         <v>622.1056773121423</v>
       </c>
       <c r="L4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121423</v>
       </c>
       <c r="M4" t="n">
         <v>622.1056773121425</v>
@@ -26828,10 +26828,10 @@
         <v>622.1056773121425</v>
       </c>
       <c r="O4" t="n">
-        <v>622.1056773121425</v>
+        <v>622.1056773121423</v>
       </c>
       <c r="P4" t="n">
-        <v>622.1056773121423</v>
+        <v>622.1056773121426</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>168.6536013322388</v>
+        <v>168.653601332239</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985686</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,7 +32010,7 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O14" t="n">
         <v>291.4251699938981</v>
@@ -32019,16 +32019,16 @@
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100417</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050277</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651294</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I15" t="n">
         <v>31.86273349432573</v>
@@ -32080,7 +32080,7 @@
         <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
@@ -32089,7 +32089,7 @@
         <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027709</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,19 +32150,19 @@
         <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677271</v>
+        <v>6.898080517677272</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445408</v>
+        <v>54.85314129445409</v>
       </c>
       <c r="K16" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596672</v>
       </c>
       <c r="L16" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,16 +32174,16 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701259</v>
+        <v>93.8364654470126</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391795</v>
       </c>
       <c r="S16" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T16" t="n">
         <v>3.315028469640403</v>
@@ -32232,43 +32232,43 @@
         <v>17.71369318248255</v>
       </c>
       <c r="I17" t="n">
-        <v>66.68201209985685</v>
+        <v>66.68201209985688</v>
       </c>
       <c r="J17" t="n">
-        <v>146.801178249406</v>
+        <v>146.8011782494061</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0169119161446</v>
+        <v>220.0169119161447</v>
       </c>
       <c r="L17" t="n">
-        <v>272.9504344581586</v>
+        <v>272.9504344581587</v>
       </c>
       <c r="M17" t="n">
-        <v>303.7099502530053</v>
+        <v>303.7099502530054</v>
       </c>
       <c r="N17" t="n">
-        <v>308.6242947670762</v>
+        <v>308.6242947670763</v>
       </c>
       <c r="O17" t="n">
         <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
-        <v>248.7246402301936</v>
+        <v>248.7246402301937</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7818464210729</v>
+        <v>186.781846421073</v>
       </c>
       <c r="R17" t="n">
-        <v>108.6496061881235</v>
+        <v>108.6496061881236</v>
       </c>
       <c r="S17" t="n">
-        <v>39.41421051100416</v>
+        <v>39.41421051100418</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050278</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1383713369558016</v>
+        <v>0.1383713369558017</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651296</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179016</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432574</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659498</v>
+        <v>87.433776076595</v>
       </c>
       <c r="K18" t="n">
-        <v>149.4382495618586</v>
+        <v>149.4382495618587</v>
       </c>
       <c r="L18" t="n">
-        <v>200.9381683613497</v>
+        <v>200.9381683613498</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365857</v>
       </c>
       <c r="N18" t="n">
-        <v>240.6914947108307</v>
+        <v>240.6914947108308</v>
       </c>
       <c r="O18" t="n">
         <v>220.1856947600876</v>
@@ -32338,16 +32338,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027709</v>
+        <v>57.4584529102771</v>
       </c>
       <c r="S18" t="n">
-        <v>17.18964029916807</v>
+        <v>17.18964029916808</v>
       </c>
       <c r="T18" t="n">
-        <v>3.730172239654182</v>
+        <v>3.730172239654183</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928486</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.775857726937116</v>
       </c>
       <c r="H19" t="n">
-        <v>6.898080517677271</v>
+        <v>6.898080517677273</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J19" t="n">
-        <v>54.85314129445408</v>
+        <v>54.8531412944541</v>
       </c>
       <c r="K19" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596673</v>
       </c>
       <c r="L19" t="n">
-        <v>115.3488842393599</v>
+        <v>115.34888423936</v>
       </c>
       <c r="M19" t="n">
-        <v>121.6192253234244</v>
+        <v>121.6192253234245</v>
       </c>
       <c r="N19" t="n">
         <v>118.727391977568</v>
       </c>
       <c r="O19" t="n">
-        <v>109.6639630765298</v>
+        <v>109.6639630765299</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701261</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288887</v>
       </c>
       <c r="R19" t="n">
-        <v>34.88538470391794</v>
+        <v>34.88538470391796</v>
       </c>
       <c r="S19" t="n">
-        <v>13.521084204895</v>
+        <v>13.52108420489501</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640404</v>
       </c>
       <c r="U19" t="n">
         <v>0.04231951237838819</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H20" t="n">
         <v>17.71369318248255</v>
@@ -32487,7 +32487,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P20" t="n">
         <v>248.7246402301936</v>
@@ -32502,7 +32502,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050276</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U20" t="n">
         <v>0.1383713369558016</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651293</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179014</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K21" t="n">
         <v>149.4382495618586</v>
@@ -32560,7 +32560,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N21" t="n">
         <v>240.6914947108307</v>
@@ -32575,7 +32575,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027709</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S21" t="n">
         <v>17.18964029916807</v>
@@ -32584,7 +32584,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928485</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677271</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I22" t="n">
         <v>23.332157824618</v>
@@ -32633,7 +32633,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.1405613659667</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L22" t="n">
         <v>115.3488842393599</v>
@@ -32648,10 +32648,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701259</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288886</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R22" t="n">
         <v>34.88538470391794</v>
@@ -32660,10 +32660,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34365,43 +34365,43 @@
         <v>23.20449936857809</v>
       </c>
       <c r="I44" t="n">
-        <v>87.35178439224778</v>
+        <v>87.35178439224779</v>
       </c>
       <c r="J44" t="n">
-        <v>192.3059078026467</v>
+        <v>192.3059078026468</v>
       </c>
       <c r="K44" t="n">
         <v>288.2167056321999</v>
       </c>
       <c r="L44" t="n">
-        <v>357.5583092012097</v>
+        <v>357.5583092012099</v>
       </c>
       <c r="M44" t="n">
-        <v>397.8525130968231</v>
+        <v>397.8525130968232</v>
       </c>
       <c r="N44" t="n">
-        <v>404.2901827007262</v>
+        <v>404.2901827007263</v>
       </c>
       <c r="O44" t="n">
-        <v>381.7597552044442</v>
+        <v>381.7597552044443</v>
       </c>
       <c r="P44" t="n">
-        <v>325.8231187429017</v>
+        <v>325.8231187429018</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6795929391957</v>
+        <v>244.6795929391958</v>
       </c>
       <c r="R44" t="n">
         <v>142.328293270982</v>
       </c>
       <c r="S44" t="n">
-        <v>51.63163963007188</v>
+        <v>51.63163963007189</v>
       </c>
       <c r="T44" t="n">
-        <v>9.918486120927682</v>
+        <v>9.918486120927684</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1812630244829729</v>
+        <v>0.181263024482973</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.212303353013186</v>
+        <v>1.212303353013187</v>
       </c>
       <c r="H45" t="n">
         <v>11.70829817252209</v>
       </c>
       <c r="I45" t="n">
-        <v>41.73939175944523</v>
+        <v>41.73939175944524</v>
       </c>
       <c r="J45" t="n">
-        <v>114.5360812598993</v>
+        <v>114.5360812598994</v>
       </c>
       <c r="K45" t="n">
         <v>195.7604059117828</v>
@@ -34456,31 +34456,31 @@
         <v>263.2240240829728</v>
       </c>
       <c r="M45" t="n">
-        <v>307.1700206297007</v>
+        <v>307.1700206297008</v>
       </c>
       <c r="N45" t="n">
-        <v>315.2998970628462</v>
+        <v>315.2998970628463</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4378069776592</v>
+        <v>288.4378069776593</v>
       </c>
       <c r="P45" t="n">
-        <v>231.496769225825</v>
+        <v>231.4967692258251</v>
       </c>
       <c r="Q45" t="n">
         <v>154.7494595881394</v>
       </c>
       <c r="R45" t="n">
-        <v>75.26915028620471</v>
+        <v>75.26915028620472</v>
       </c>
       <c r="S45" t="n">
-        <v>22.51800307022298</v>
+        <v>22.51800307022299</v>
       </c>
       <c r="T45" t="n">
-        <v>4.886433251838236</v>
+        <v>4.886433251838237</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07975679954034123</v>
+        <v>0.07975679954034125</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>1.016354407257244</v>
       </c>
       <c r="H46" t="n">
-        <v>9.036314639068959</v>
+        <v>9.03631463906896</v>
       </c>
       <c r="I46" t="n">
-        <v>30.56454890188149</v>
+        <v>30.5645489018815</v>
       </c>
       <c r="J46" t="n">
-        <v>71.85625659308715</v>
+        <v>71.85625659308717</v>
       </c>
       <c r="K46" t="n">
         <v>118.0819029522507</v>
       </c>
       <c r="L46" t="n">
-        <v>151.1041816025906</v>
+        <v>151.1041816025907</v>
       </c>
       <c r="M46" t="n">
-        <v>159.3181731303332</v>
+        <v>159.3181731303333</v>
       </c>
       <c r="N46" t="n">
         <v>155.52994306692</v>
       </c>
       <c r="O46" t="n">
-        <v>143.6570756730512</v>
+        <v>143.6570756730513</v>
       </c>
       <c r="P46" t="n">
         <v>122.9234457650034</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.10582222951341</v>
+        <v>85.10582222951344</v>
       </c>
       <c r="R46" t="n">
-        <v>45.69898998449389</v>
+        <v>45.6989899844939</v>
       </c>
       <c r="S46" t="n">
         <v>17.7122854428376</v>
       </c>
       <c r="T46" t="n">
-        <v>4.342605194644587</v>
+        <v>4.342605194644588</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05543751312312246</v>
+        <v>0.05543751312312248</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
@@ -35509,7 +35509,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>295.9748992311996</v>
+        <v>272.2806509035109</v>
       </c>
       <c r="R12" t="n">
         <v>33.78553351613294</v>
@@ -35573,10 +35573,10 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
+        <v>257.732963439917</v>
+      </c>
+      <c r="M13" t="n">
         <v>453.4520759799034</v>
-      </c>
-      <c r="M13" t="n">
-        <v>99.0437854319386</v>
       </c>
       <c r="N13" t="n">
         <v>453.4520759799034</v>
@@ -35585,10 +35585,10 @@
         <v>87.16477557810538</v>
       </c>
       <c r="P13" t="n">
-        <v>77.24232019306622</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q13" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589336</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35658,7 +35658,7 @@
         <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O14" t="n">
         <v>254.034210637874</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
-        <v>175.8128035331978</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
         <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471201</v>
+        <v>248.7984716825379</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>453.4520759799035</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.38455350960189</v>
+        <v>95.3845535096019</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35807,25 +35807,25 @@
         <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>318.9563201597416</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L16" t="n">
+        <v>257.732963439917</v>
+      </c>
+      <c r="M16" t="n">
         <v>453.4520759799035</v>
       </c>
-      <c r="M16" t="n">
-        <v>99.0437854319386</v>
-      </c>
       <c r="N16" t="n">
-        <v>97.9784910019676</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810539</v>
       </c>
       <c r="P16" t="n">
-        <v>71.4556647890261</v>
+        <v>71.45566478902612</v>
       </c>
       <c r="Q16" t="n">
-        <v>188.2234045722202</v>
+        <v>40.34794198810393</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.13410955589335</v>
+        <v>32.13410955589337</v>
       </c>
       <c r="J17" t="n">
         <v>117.3812187638195</v>
@@ -35889,25 +35889,25 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255358</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535736</v>
       </c>
       <c r="N17" t="n">
-        <v>271.3446719326302</v>
+        <v>271.3446719326303</v>
       </c>
       <c r="O17" t="n">
         <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
-        <v>211.1492784199623</v>
+        <v>211.1492784199624</v>
       </c>
       <c r="Q17" t="n">
         <v>150.6571718164749</v>
       </c>
       <c r="R17" t="n">
-        <v>73.61695629332706</v>
+        <v>73.61695629332709</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>127.0390157285253</v>
       </c>
       <c r="L18" t="n">
-        <v>178.4230816471201</v>
+        <v>178.4230816471202</v>
       </c>
       <c r="M18" t="n">
-        <v>211.3885843242576</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N18" t="n">
         <v>219.3484664972891</v>
@@ -35980,10 +35980,10 @@
         <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
-        <v>154.9475907538915</v>
+        <v>154.9475907538916</v>
       </c>
       <c r="Q18" t="n">
-        <v>165.7599435450201</v>
+        <v>165.7599435450192</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.21638531055221</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>318.9563201597416</v>
+        <v>318.9563201597417</v>
       </c>
       <c r="L19" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="M19" t="n">
-        <v>99.0437854319386</v>
+        <v>453.4520759799036</v>
       </c>
       <c r="N19" t="n">
-        <v>97.9784910019676</v>
+        <v>97.97849100196764</v>
       </c>
       <c r="O19" t="n">
-        <v>453.4520759799035</v>
+        <v>246.9192480160551</v>
       </c>
       <c r="P19" t="n">
-        <v>298.0399320683148</v>
+        <v>71.45566478902613</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.34794198810391</v>
+        <v>40.34794198810393</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N20" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P20" t="n">
         <v>211.1492784199623</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.69034674432573</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J21" t="n">
-        <v>66.82266174326165</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
         <v>127.0390157285253</v>
@@ -36208,22 +36208,22 @@
         <v>178.4230816471201</v>
       </c>
       <c r="M21" t="n">
-        <v>453.4520759799035</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>453.4520759799035</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P21" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960189</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R21" t="n">
-        <v>53.26180079602655</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>34.21638531055221</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325471</v>
+        <v>69.17590691325469</v>
       </c>
       <c r="L22" t="n">
-        <v>219.9348809797784</v>
+        <v>433.3196587776383</v>
       </c>
       <c r="M22" t="n">
         <v>453.4520759799035</v>
@@ -36293,13 +36293,13 @@
         <v>453.4520759799035</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P22" t="n">
-        <v>71.4556647890261</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.34794198810391</v>
+        <v>193.2504645920423</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>240.7089373687432</v>
       </c>
       <c r="M24" t="n">
-        <v>299.6225792639912</v>
+        <v>284.0732401173727</v>
       </c>
       <c r="N24" t="n">
         <v>293.9568688493045</v>
@@ -36460,7 +36460,7 @@
         <v>132.0024212991609</v>
       </c>
       <c r="R24" t="n">
-        <v>51.59623089206056</v>
+        <v>67.14557003867912</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>51.21950060918529</v>
       </c>
       <c r="K25" t="n">
-        <v>147.6972710867074</v>
+        <v>233.835370347892</v>
       </c>
       <c r="L25" t="n">
         <v>509.3762233141268</v>
@@ -36527,13 +36527,13 @@
         <v>554.4553397669503</v>
       </c>
       <c r="N25" t="n">
-        <v>536.8344995073602</v>
+        <v>134.7810420913196</v>
       </c>
       <c r="O25" t="n">
         <v>502.6753874707917</v>
       </c>
       <c r="P25" t="n">
-        <v>100.5426451070169</v>
+        <v>416.458003261873</v>
       </c>
       <c r="Q25" t="n">
         <v>60.48625946472846</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606368</v>
       </c>
       <c r="J27" t="n">
-        <v>109.4743060731844</v>
+        <v>93.924966926566</v>
       </c>
       <c r="K27" t="n">
         <v>173.3611720784495</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>129.9283053043579</v>
+        <v>79.30738895316635</v>
       </c>
       <c r="K28" t="n">
         <v>346.8976617460256</v>
       </c>
       <c r="L28" t="n">
-        <v>509.3762233141268</v>
+        <v>129.1854217068894</v>
       </c>
       <c r="M28" t="n">
-        <v>136.7427332388474</v>
+        <v>554.4553397669503</v>
       </c>
       <c r="N28" t="n">
-        <v>207.820029922178</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O28" t="n">
         <v>502.6753874707917</v>
       </c>
       <c r="P28" t="n">
-        <v>416.458003261873</v>
+        <v>100.5426451070169</v>
       </c>
       <c r="Q28" t="n">
         <v>213.3887820686669</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606368</v>
       </c>
       <c r="J30" t="n">
         <v>93.924966926566</v>
@@ -36931,7 +36931,7 @@
         <v>209.7259280209964</v>
       </c>
       <c r="Q30" t="n">
-        <v>147.5517604457794</v>
+        <v>132.0024212991609</v>
       </c>
       <c r="R30" t="n">
         <v>51.59623089206056</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>129.9283053043579</v>
+        <v>101.799523196354</v>
       </c>
       <c r="K31" t="n">
         <v>97.11724849953869</v>
       </c>
       <c r="L31" t="n">
-        <v>129.1854217068894</v>
+        <v>509.3762233141268</v>
       </c>
       <c r="M31" t="n">
         <v>554.4553397669503</v>
@@ -37007,10 +37007,10 @@
         <v>502.6753874707917</v>
       </c>
       <c r="P31" t="n">
-        <v>299.7021420023115</v>
+        <v>100.5426451070169</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472846</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>25.56700500944523</v>
       </c>
       <c r="J33" t="n">
-        <v>109.4743060731844</v>
+        <v>93.924966926566</v>
       </c>
       <c r="K33" t="n">
         <v>173.3611720784495</v>
@@ -37171,7 +37171,7 @@
         <v>132.0024212991609</v>
       </c>
       <c r="R33" t="n">
-        <v>51.59623089206056</v>
+        <v>67.14557003867912</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>51.21950060918529</v>
+        <v>101.799523196354</v>
       </c>
       <c r="K34" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953869</v>
       </c>
       <c r="L34" t="n">
         <v>509.3762233141268</v>
       </c>
       <c r="M34" t="n">
-        <v>136.7427332388474</v>
+        <v>554.4553397669503</v>
       </c>
       <c r="N34" t="n">
-        <v>286.5288346173505</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O34" t="n">
         <v>502.6753874707917</v>
       </c>
       <c r="P34" t="n">
-        <v>416.458003261873</v>
+        <v>100.5426451070169</v>
       </c>
       <c r="Q34" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472846</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>41.11634415606368</v>
+        <v>25.56700500944523</v>
       </c>
       <c r="J36" t="n">
         <v>93.924966926566</v>
@@ -37405,7 +37405,7 @@
         <v>209.7259280209964</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.0024212991609</v>
+        <v>147.5517604457794</v>
       </c>
       <c r="R36" t="n">
         <v>51.59623089206056</v>
@@ -37475,16 +37475,16 @@
         <v>554.4553397669503</v>
       </c>
       <c r="N37" t="n">
-        <v>171.6249226902401</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O37" t="n">
         <v>121.1578881746268</v>
       </c>
       <c r="P37" t="n">
-        <v>416.458003261873</v>
+        <v>204.1509490486914</v>
       </c>
       <c r="Q37" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472846</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>344.3687958484201</v>
       </c>
       <c r="P38" t="n">
-        <v>288.2477569326709</v>
+        <v>288.2477569326704</v>
       </c>
       <c r="Q38" t="n">
         <v>208.5549183345977</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>129.9283053043579</v>
+        <v>51.21950060918529</v>
       </c>
       <c r="K40" t="n">
-        <v>346.8976617460256</v>
+        <v>97.11724849953869</v>
       </c>
       <c r="L40" t="n">
         <v>509.3762233141268</v>
@@ -37712,16 +37712,16 @@
         <v>554.4553397669503</v>
       </c>
       <c r="N40" t="n">
-        <v>171.6249226902401</v>
+        <v>536.8344995073602</v>
       </c>
       <c r="O40" t="n">
-        <v>121.1578881746268</v>
+        <v>502.6753874707917</v>
       </c>
       <c r="P40" t="n">
-        <v>416.458003261873</v>
+        <v>151.1226676941854</v>
       </c>
       <c r="Q40" t="n">
-        <v>213.3887820686669</v>
+        <v>60.48625946472846</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.56700500944523</v>
+        <v>41.11634415606368</v>
       </c>
       <c r="J42" t="n">
         <v>93.924966926566</v>
@@ -37864,7 +37864,7 @@
         <v>173.3611720784495</v>
       </c>
       <c r="L42" t="n">
-        <v>256.2582765153617</v>
+        <v>240.7089373687432</v>
       </c>
       <c r="M42" t="n">
         <v>284.0732401173727</v>
@@ -37943,7 +37943,7 @@
         <v>97.11724849953869</v>
       </c>
       <c r="L43" t="n">
-        <v>509.3762233141268</v>
+        <v>407.0537232973569</v>
       </c>
       <c r="M43" t="n">
         <v>554.4553397669503</v>
@@ -37955,10 +37955,10 @@
         <v>502.6753874707917</v>
       </c>
       <c r="P43" t="n">
-        <v>151.1226676941854</v>
+        <v>100.5426451070169</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.48625946472846</v>
+        <v>213.3887820686669</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>52.80388184828428</v>
+        <v>52.80388184828429</v>
       </c>
       <c r="J44" t="n">
-        <v>162.8859483170602</v>
+        <v>162.8859483170603</v>
       </c>
       <c r="K44" t="n">
         <v>252.4521048373906</v>
       </c>
       <c r="L44" t="n">
-        <v>319.2462667685868</v>
+        <v>319.2462667685869</v>
       </c>
       <c r="M44" t="n">
-        <v>360.4212501973913</v>
+        <v>360.4212501973914</v>
       </c>
       <c r="N44" t="n">
-        <v>367.0105598662802</v>
+        <v>367.0105598662803</v>
       </c>
       <c r="O44" t="n">
-        <v>344.3687958484201</v>
+        <v>344.3687958484202</v>
       </c>
       <c r="P44" t="n">
-        <v>288.2477569326704</v>
+        <v>288.2477569326705</v>
       </c>
       <c r="Q44" t="n">
         <v>208.5549183345977</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>25.56700500944523</v>
+        <v>25.56700500944524</v>
       </c>
       <c r="J45" t="n">
-        <v>109.4743060731844</v>
+        <v>93.92496692656603</v>
       </c>
       <c r="K45" t="n">
         <v>173.3611720784495</v>
       </c>
       <c r="L45" t="n">
-        <v>240.7089373687432</v>
+        <v>240.7089373687433</v>
       </c>
       <c r="M45" t="n">
-        <v>284.0732401173727</v>
+        <v>284.0732401173728</v>
       </c>
       <c r="N45" t="n">
-        <v>293.9568688493045</v>
+        <v>293.9568688493046</v>
       </c>
       <c r="O45" t="n">
-        <v>265.265917255437</v>
+        <v>265.2659172554371</v>
       </c>
       <c r="P45" t="n">
         <v>209.7259280209964</v>
@@ -38119,7 +38119,7 @@
         <v>132.0024212991609</v>
       </c>
       <c r="R45" t="n">
-        <v>51.59623089206056</v>
+        <v>67.14557003867867</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>129.9283053043579</v>
       </c>
       <c r="K46" t="n">
-        <v>97.11724849953869</v>
+        <v>346.8976617460256</v>
       </c>
       <c r="L46" t="n">
         <v>509.3762233141268</v>
@@ -38186,7 +38186,7 @@
         <v>136.7427332388474</v>
       </c>
       <c r="N46" t="n">
-        <v>457.6004431686642</v>
+        <v>207.820029922178</v>
       </c>
       <c r="O46" t="n">
         <v>502.6753874707917</v>
